--- a/names_and_savings_new.xlsx
+++ b/names_and_savings_new.xlsx
@@ -1031,7 +1031,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
     <col width="10.625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="11" bestFit="1" customWidth="1" style="1" min="2" max="2"/>

--- a/names_and_savings_new.xlsx
+++ b/names_and_savings_new.xlsx
@@ -1052,6 +1052,11 @@
       <c r="C1" s="0" t="n">
         <v>5000</v>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -1067,6 +1072,11 @@
       <c r="C2" s="0" t="n">
         <v>8000</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -1082,6 +1092,11 @@
       <c r="C3" s="0" t="n">
         <v>12000</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -1097,6 +1112,11 @@
       <c r="C4" s="0" t="n">
         <v>3000</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -1112,6 +1132,11 @@
       <c r="C5" s="0" t="n">
         <v>15000</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -1129,7 +1154,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1147,6 +1172,11 @@
       <c r="C7" s="0" t="n">
         <v>7000</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -1162,6 +1192,11 @@
       <c r="C8" s="0" t="n">
         <v>9000</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -1177,6 +1212,11 @@
       <c r="C9" s="0" t="n">
         <v>18000</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -1192,6 +1232,11 @@
       <c r="C10" s="0" t="n">
         <v>10000</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -1209,7 +1254,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1227,6 +1272,11 @@
       <c r="C12" s="0" t="n">
         <v>5000</v>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -1242,6 +1292,11 @@
       <c r="C13" s="0" t="n">
         <v>8000</v>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -1257,6 +1312,11 @@
       <c r="C14" s="0" t="n">
         <v>6000</v>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -1274,7 +1334,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1292,6 +1352,11 @@
       <c r="C16" s="0" t="n">
         <v>12000</v>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -1307,6 +1372,11 @@
       <c r="C17" s="0" t="n">
         <v>15000</v>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -1322,6 +1392,11 @@
       <c r="C18" s="0" t="n">
         <v>5000</v>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -1337,6 +1412,11 @@
       <c r="C19" s="0" t="n">
         <v>8000</v>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -1354,7 +1434,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1372,6 +1452,11 @@
       <c r="C21" s="0" t="n">
         <v>18000</v>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -1387,6 +1472,11 @@
       <c r="C22" s="0" t="n">
         <v>6000</v>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -1402,6 +1492,11 @@
       <c r="C23" s="0" t="n">
         <v>9000</v>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -1419,7 +1514,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1437,6 +1532,11 @@
       <c r="C25" s="0" t="n">
         <v>7000</v>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -1452,6 +1552,11 @@
       <c r="C26" s="0" t="n">
         <v>10000</v>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -1467,6 +1572,11 @@
       <c r="C27" s="0" t="n">
         <v>13000</v>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -1482,6 +1592,11 @@
       <c r="C28" s="0" t="n">
         <v>19000</v>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -1497,6 +1612,11 @@
       <c r="C29" s="0" t="n">
         <v>8000</v>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -1512,6 +1632,11 @@
       <c r="C30" s="0" t="n">
         <v>12000</v>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -1527,6 +1652,11 @@
       <c r="C31" s="0" t="n">
         <v>16000</v>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -1542,6 +1672,11 @@
       <c r="C32" s="0" t="n">
         <v>18000</v>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -1557,6 +1692,11 @@
       <c r="C33" s="0" t="n">
         <v>7000</v>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -1574,7 +1714,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1592,6 +1732,11 @@
       <c r="C35" s="0" t="n">
         <v>6000</v>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -1607,6 +1752,11 @@
       <c r="C36" s="0" t="n">
         <v>17000</v>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -1624,7 +1774,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1642,6 +1792,11 @@
       <c r="C38" s="0" t="n">
         <v>14000</v>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -1657,6 +1812,11 @@
       <c r="C39" s="0" t="n">
         <v>9000</v>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -1672,6 +1832,11 @@
       <c r="C40" s="0" t="n">
         <v>12000</v>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -1687,6 +1852,11 @@
       <c r="C41" s="0" t="n">
         <v>15000</v>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -1704,7 +1874,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1722,6 +1892,11 @@
       <c r="C43" s="0" t="n">
         <v>10000</v>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -1739,7 +1914,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1757,6 +1932,11 @@
       <c r="C45" s="0" t="n">
         <v>7000</v>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -1772,6 +1952,11 @@
       <c r="C46" s="0" t="n">
         <v>8000</v>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -1787,6 +1972,11 @@
       <c r="C47" s="0" t="n">
         <v>15000</v>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -1802,6 +1992,11 @@
       <c r="C48" s="0" t="n">
         <v>6000</v>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -1817,6 +2012,11 @@
       <c r="C49" s="0" t="n">
         <v>13000</v>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -1832,6 +2032,11 @@
       <c r="C50" s="0" t="n">
         <v>9000</v>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -1847,6 +2052,11 @@
       <c r="C51" s="0" t="n">
         <v>11000</v>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -1862,6 +2072,11 @@
       <c r="C52" s="0" t="n">
         <v>18000</v>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -1879,7 +2094,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1899,7 +2114,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -1917,6 +2132,11 @@
       <c r="C55" s="0" t="n">
         <v>12000</v>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -1932,6 +2152,11 @@
       <c r="C56" s="0" t="n">
         <v>16000</v>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -1947,6 +2172,11 @@
       <c r="C57" s="0" t="n">
         <v>19000</v>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
@@ -1962,6 +2192,11 @@
       <c r="C58" s="0" t="n">
         <v>9000</v>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
@@ -1977,6 +2212,11 @@
       <c r="C59" s="0" t="n">
         <v>7000</v>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
@@ -1992,6 +2232,11 @@
       <c r="C60" s="0" t="n">
         <v>10000</v>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
@@ -2007,6 +2252,11 @@
       <c r="C61" s="0" t="n">
         <v>13000</v>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
@@ -2022,6 +2272,11 @@
       <c r="C62" s="0" t="n">
         <v>18000</v>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="inlineStr">
@@ -2039,7 +2294,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2314,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2077,6 +2332,11 @@
       <c r="C65" s="0" t="n">
         <v>16000</v>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
@@ -2092,6 +2352,11 @@
       <c r="C66" s="0" t="n">
         <v>19000</v>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
@@ -2109,7 +2374,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2127,6 +2392,11 @@
       <c r="C68" s="0" t="n">
         <v>8000</v>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="inlineStr">
@@ -2142,6 +2412,11 @@
       <c r="C69" s="0" t="n">
         <v>12000</v>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
@@ -2157,6 +2432,11 @@
       <c r="C70" s="0" t="n">
         <v>13000</v>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
@@ -2172,6 +2452,11 @@
       <c r="C71" s="0" t="n">
         <v>18000</v>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
@@ -2187,6 +2472,11 @@
       <c r="C72" s="0" t="n">
         <v>19000</v>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
@@ -2202,6 +2492,11 @@
       <c r="C73" s="0" t="n">
         <v>16000</v>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
@@ -2217,6 +2512,11 @@
       <c r="C74" s="0" t="n">
         <v>9000</v>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
@@ -2232,6 +2532,11 @@
       <c r="C75" s="0" t="n">
         <v>11000</v>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
@@ -2249,7 +2554,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2267,6 +2572,11 @@
       <c r="C77" s="0" t="n">
         <v>14000</v>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
@@ -2282,6 +2592,11 @@
       <c r="C78" s="0" t="n">
         <v>12000</v>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
@@ -2297,6 +2612,11 @@
       <c r="C79" s="0" t="n">
         <v>18000</v>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
@@ -2314,7 +2634,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2654,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2352,6 +2672,11 @@
       <c r="C82" s="0" t="n">
         <v>12000</v>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
@@ -2367,6 +2692,11 @@
       <c r="C83" s="0" t="n">
         <v>13000</v>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
@@ -2382,6 +2712,11 @@
       <c r="C84" s="0" t="n">
         <v>16000</v>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
@@ -2397,6 +2732,11 @@
       <c r="C85" s="0" t="n">
         <v>19000</v>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
@@ -2412,6 +2752,11 @@
       <c r="C86" s="0" t="n">
         <v>18000</v>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
@@ -2427,6 +2772,11 @@
       <c r="C87" s="0" t="n">
         <v>11000</v>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
@@ -2442,6 +2792,11 @@
       <c r="C88" s="0" t="n">
         <v>13000</v>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
@@ -2457,6 +2812,11 @@
       <c r="C89" s="0" t="n">
         <v>19000</v>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
@@ -2472,6 +2832,11 @@
       <c r="C90" s="0" t="n">
         <v>18000</v>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
@@ -2487,6 +2852,11 @@
       <c r="C91" s="0" t="n">
         <v>9000</v>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
@@ -2502,6 +2872,11 @@
       <c r="C92" s="0" t="n">
         <v>13000</v>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
@@ -2517,6 +2892,11 @@
       <c r="C93" s="0" t="n">
         <v>16000</v>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
@@ -2532,6 +2912,11 @@
       <c r="C94" s="0" t="n">
         <v>19000</v>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
@@ -2549,7 +2934,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2954,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2587,6 +2972,11 @@
       <c r="C97" s="0" t="n">
         <v>16000</v>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
@@ -2602,6 +2992,11 @@
       <c r="C98" s="0" t="n">
         <v>19000</v>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
@@ -2619,7 +3014,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2639,7 +3034,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2657,6 +3052,11 @@
       <c r="C101" s="0" t="n">
         <v>19000</v>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="inlineStr">
@@ -2672,6 +3072,11 @@
       <c r="C102" s="0" t="n">
         <v>16000</v>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="inlineStr">
@@ -2689,7 +3094,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2707,6 +3112,11 @@
       <c r="C104" s="0" t="n">
         <v>13000</v>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="inlineStr">
@@ -2722,6 +3132,11 @@
       <c r="C105" s="0" t="n">
         <v>16000</v>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="inlineStr">
@@ -2737,6 +3152,11 @@
       <c r="C106" s="0" t="n">
         <v>18000</v>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="inlineStr">
@@ -2754,7 +3174,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VVIP</t>
         </is>
       </c>
     </row>
@@ -2772,6 +3192,11 @@
       <c r="C108" s="0" t="n">
         <v>19000</v>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="inlineStr">
@@ -2787,6 +3212,11 @@
       <c r="C109" s="0" t="n">
         <v>11000</v>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="inlineStr">
@@ -2802,6 +3232,11 @@
       <c r="C110" s="0" t="n">
         <v>13000</v>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="inlineStr">
@@ -2816,6 +3251,11 @@
       </c>
       <c r="C111" s="0" t="n">
         <v>19000</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
       </c>
     </row>
   </sheetData>
